--- a/finetuning/it_datasets/qa_dataset/qa_it_douane_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_douane_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,50 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for something fun to do, check out BUREAU REGIONAL DES DOUANES DE SOUSSE located at RJPJ+GMH BUREAU REGIONAL DES DOUANES DE SOUSSE, Sousse. This top-rated destination is perfect for Administration lovers and offers a range of Administration to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.8293001, 10.6406309. For more details, visit their website at http://www.douane.gov.tn/ or call them at 73 321 647.</t>
+          <t>The BUREAU REGIONAL DES DOUANES DE SOUSSE is a local customs office located in Sousse, Tunisia. It is situated at the coordinates (35.8293001, 10.6406309) and has a rating of 4.0 out of 5 stars. The office offers various customs services, including import and export clearance, duty calculation, and other related services. You can find more information about the office and its services by visiting its website at http://www.douane.gov.tn/ or by calling 73 321 647.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination in Sousse, known for its exceptional Administration services?</t>
+          <t>**Day Plan:**
+**Morning:** Explore Douanes Tunis port, learning about customs operations and admiring its efficiency.
+**Mid-Morning:** Visit Direction Générale des Douanes for insights into border control and customs clearance.
+**Midday:** Try local cuisine at Bab Tounes, savoring traditional Tunisian dishes like couscous and iftar.
+**Afternoon:** Enjoy scenic views at LA VERANDA cafe, sipping coffee while admiring the surrounding area.
+**Evening:** Take a guided tour of Douanes Tunisinne in Bizerte, exploring the main customs office and its operations.
+**Night:** Relax and rejuvenate at a hotel or spa, treating yourself to a massage or other pampering experience.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Douanes Tunis port, located in Tunis at R58J+55C, is a customs office that ensures the smooth flow of goods through the port. It offers services such as customs clearance, inspection, and storage. The office is known for its efficiency and professionalism, and for providing excellent customer service.
+**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).
+Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.
+Bab Tounes is a restaurant located in Tunis, Tunisia. It offers a variety of traditional Tunisian dishes, including couscous and iftar. The restaurant has a rating of 4.9 out of 5 on Google, and it is open from 12:30 pm to 10:30 pm every day. The restaurant is located at Bab Tounes, 3 Rue de l'ancienne douane, Tunis 1000.
+LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -782,14 +825,56 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for something to do, check out Douanes Tunis port. 
-This popular destination is perfect for Administration lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:30-12:30, 13:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 36.8221539, 10.1949539. For more details, visit their website at https://www.douane.gov.tn/ or call them at 71 799 700.</t>
+          <t>Douanes Tunis port, located in Tunis at R58J+55C, is a customs office that ensures the smooth flow of goods through the port. It offers services such as customs clearance, inspection, and storage. The office is known for its efficiency and professionalism, and for providing excellent customer service.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination that caters to those interested in Administration, located at specific GPS coordinates with specific hours of operation?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the BUREAU REGIONAL DES DOUANES DE SOUSSE to learn about local customs practices.
+**Mid-Morning:**
+- Visit Bab Tounes for a delicious traditional Tunisian lunch.
+**Midday:**
+- Take a guided tour of Direction Générale des Douanes to gain insights into border control.
+**Afternoon:**
+- Relax with a coffee at LA VERANDA while taking in the beautiful surroundings.
+**Evening:**
+- Enjoy dinner at Douanes Tunisinne for a taste of Bizerte's culinary scene.
+**Night:**
+- Dance the night away at a lively club in Tunis.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The BUREAU REGIONAL DES DOUANES DE SOUSSE is a local customs office located in Sousse, Tunisia. It is situated at the coordinates (35.8293001, 10.6406309) and has a rating of 4.0 out of 5 stars. The office offers various customs services, including import and export clearance, duty calculation, and other related services. You can find more information about the office and its services by visiting its website at http://www.douane.gov.tn/ or by calling 73 321 647.
+**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).
+Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.
+Bab Tounes is a restaurant located in Tunis, Tunisia. It offers a variety of traditional Tunisian dishes, including couscous and iftar. The restaurant has a rating of 4.9 out of 5 on Google, and it is open from 12:30 pm to 10:30 pm every day. The restaurant is located at Bab Tounes, 3 Rue de l'ancienne douane, Tunis 1000.
+LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -891,12 +976,50 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for a Customs department, check out Direction generale des douanes located at Direction generale des douanes, El Fell, Tunis. This top-rated destination offers a range of Customs department to choose from. With a rating of 3.2, it's a must-visit spot. To get there, use these GPS coordinates: 36.8155168, 10.1802649. For more details, call them at 80 103 066.</t>
+          <t>**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Customs department in Tunis,Tunisia with GPS coordinates 36.8155168, 10.1802649?</t>
+          <t>Day Plan:
+Morning: Explore the historic Bab Tounes neighborhood in Tunis.
+Mid-Morning: Visit the Direction Générale des Douanes for a glimpse into customs operations.
+Midday: Dine at Bab Tounes for authentic Tunisian cuisine.
+Afternoon: Relax with a coffee and socialize at LA VERANDA cafe.
+Evening: Take a guided tour of the BUREAU REGIONAL DES DOUANES DE SOUSSE to learn about customs regulations.
+Night: Enjoy a scenic evening at Douanes Tunisinne, offering stunning views and possibly live music.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The BUREAU REGIONAL DES DOUANES DE SOUSSE is a local customs office located in Sousse, Tunisia. It is situated at the coordinates (35.8293001, 10.6406309) and has a rating of 4.0 out of 5 stars. The office offers various customs services, including import and export clearance, duty calculation, and other related services. You can find more information about the office and its services by visiting its website at http://www.douane.gov.tn/ or by calling 73 321 647.
+**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).
+Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.
+Bab Tounes is a restaurant located in Bab Tounes, Tunis, Tunisia, at the coordinates (36.799564504437, 10.175214628771). It is highly rated (4.9 out of 5 stars) based on 33 reviews and is known for its affordable prices, iftar, and couscous. The restaurant is open from 12:30 PM to 10:30 PM and can be contacted at 23 458 458.
+LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -998,14 +1121,50 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for a reliable Bureau principal des douanes, check out Douanes Tunisinne located at 168 Avenue 14 Janvier,, Bizerte. 
-This top-rated destination offers a range of services related to Bureau principal des douanes to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:30-13:00, 14:30-17:45, but closed on dimanche. To get there, use these GPS coordinates: 37.270866395552, 9.85679796161.</t>
+          <t>Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (4.3 stars) Bureau principal des douanes in Douane with convenient hours (08:30-13:00, 14:30-17:45) and specific GPS coordinates (37.270866395552, 9.85679796161)?</t>
+          <t>Day Plan:
+Morning: Explore Douanes Tunis port for a glimpse into the bustling hub of customs operations.
+Mid-Morning: Visit the Direction Générale des Douanes to learn about border control and customs clearance procedures.
+Midday: Indulge in a traditional Tunisian lunch at Bab Tounes restaurant, known for its affordable prices and exquisite couscous.
+Afternoon: Take a leisurely stroll through the Bab Tounes neighborhood, soaking in its historic charm and vibrant atmosphere.
+Evening: Enjoy a coffee break at the highly-rated LA VERANDA cafe and savor the local ambiance.
+Night: Experience a cultural immersion by attending a traditional Tunisian music performance at a local venue.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Douanes Tunis port, located in Tunis at R58J+55C, is a customs office that ensures the smooth flow of goods through the port. It offers services such as customs clearance, inspection, and storage. The office is known for its efficiency and professionalism, and for providing excellent customer service.
+**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).
+Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.
+Bab Tounes is a restaurant located in Bab Tounes, Tunis, Tunisia, at the coordinates (36.799564504437, 10.175214628771). It is highly rated (4.9 out of 5 stars) based on 33 reviews and is known for its affordable prices, iftar, and couscous. The restaurant is open from 12:30 PM to 10:30 PM and can be contacted at 23 458 458.
+LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1115,14 +1274,50 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for a government administration spot, check out Direction Generale Des Douanes located at Direction Generale Des Douanes, Lafayette, 1002 Rue Asdrubal, Tunis. 
-This top-rated destination is perfect for government administration lovers and offers a range of categories to choose from. 
-With a rating of 3.0, it's a must-visit spot. It's open during these hours: 08:30-17:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 36.8155168, 10.1802649. For more details, visit their website at http://www.douane.gov.tn/ or call them at 80 103 066.</t>
+          <t>Direction Générale des Douanes in Tunis is the primary government agency responsible for customs and border control within Tunisia. Located conveniently in Lafayette at 1002 Rue Asdrubal, it's easily accessible for queries or inquiries. The General Directorate provides a range of services to support trade and customs regulations, ensuring smooth and efficient cross-border operations. With a dedicated team committed to serving the public, the Direction Générale des Douanes is a key player in safeguarding Tunisia's borders and facilitating international trade. Reviews have generally been positive, with users appreciating the efficiency and professionalism of the staff.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated government administration spot specializing in customs matters within the douane district?</t>
+          <t>Day Plan:
+Morning: Explore the Douanes Tunis port and learn about its operations.
+Mid-Morning: Visit the Direction Générale des Douanes for a glimpse into customs clearance and border control.
+Midday: Try local cuisine at Bab Tounes, known for its affordable prices and delicious couscous.
+Afternoon: Enjoy a relaxing afternoon with a coffee or tea at LA VERANDA cafe, taking in the scenic views.
+Evening: Immerse yourself in the cultural heritage of Douanes Tunisinne.
+Night: Spend the evening enjoying the vibrant atmosphere and local cuisine at Bab Tounes.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Douanes Tunis port, located in Tunis at R58J+55C, is a customs office that ensures the smooth flow of goods through the port. It offers services such as customs clearance, inspection, and storage. The office is known for its efficiency and professionalism, and for providing excellent customer service.
+**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).
+Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.
+Bab Tounes is a restaurant located in Bab Tounes, Tunis, Tunisia, at the coordinates (36.799564504437, 10.175214628771). It is highly rated (4.9 out of 5 stars) based on 33 reviews and is known for its affordable prices, iftar, and couscous. The restaurant is open from 12:30 PM to 10:30 PM and can be contacted at 23 458 458.
+LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1423,50 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in douane and in search of a tasty meal, try Bab Tounes at 3 Rue de l'ancienne douane, Tunis 1000. This highly-rated restaurant specializes in Restaurant and offers a great selection of dishes to satisfy your cravings. With a rating of 4.9, it's definitely worth checking out. Bab Tounes is open from 12:30-22:30. For further information, call them at 23 458 458.</t>
+          <t>Bab Tounes is a restaurant located in Bab Tounes, Tunis, Tunisia, at the coordinates (36.799564504437, 10.175214628771). It is highly rated (4.9 out of 5 stars) based on 33 reviews and is known for its affordable prices, iftar, and couscous. The restaurant is open from 12:30 PM to 10:30 PM and can be contacted at 23 458 458.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant specializing in Restaurant can be found on Rue de l'ancienne douane in Tunis?</t>
+          <t>Day Plan:
+Morning: Exploring Douanes Tunis port
+Mid-Morning: Trying local cuisine at Bab Tounes
+Midday: Visiting Direction Générale des Douanes
+Afternoon: Enjoying scenic views at LA VERANDA
+Evening: Shopping at Douanes Tunisinne
+Night: Participating in a traditional iftar dinner at Bab Tounes</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Douanes Tunis port, located in Tunis at R58J+55C, is a customs office that ensures the smooth flow of goods through the port. It offers services such as customs clearance, inspection, and storage. The office is known for its efficiency and professionalism, and for providing excellent customer service.
+**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).
+Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.
+Bab Tounes is a restaurant located in Tunis, Tunisia. It offers a variety of traditional Tunisian dishes, including couscous and iftar. The restaurant has a rating of 4.9 out of 5 on Google, and it is open from 12:30 pm to 10:30 pm every day. The restaurant is located at Bab Tounes, 3 Rue de l'ancienne douane, Tunis 1000.
+LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1335,12 +1568,50 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for a cozy spot to relax, check out Salon de the LA VERANDA located at CQG6+56P cite douane. This top-rated cafe is known for its welcoming ambiance and offers a range of drinks and snacks to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 34.4159879, 8.7920119. For more details, visit their website at https://www.google.com/maps/place/Salon+de+th%C3%A9+LA+VERANDA/data=!4m7!3m6!1s0x12f8979e3089687d:0x9fca45b4ce2f01c!8m2!3d34.4254604!4d8.7605791!16s%2Fg%2F11f65_8s19!19sChIJfWiJMJ6X-BIRHPDiTFuk_Ak?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a cozy and highly-rated cafe with a warm ambiance and a variety of drinks and snacks in the douane area?</t>
+          <t>Day Plan:
+Morning: Exploring Douanes Tunis port to witness the smooth flow of goods and efficient customs services.
+Mid-Morning: Visiting the Bab Tounes restaurant for a delectable traditional Tunisian lunch, savoring the authentic flavors of couscous and iftar.
+Midday: Taking a leisurely stroll through the LA VERANDA cafe, immersing in its cozy ambiance while enjoying a refreshing beverage.
+Afternoon: Discovering the cultural heritage of Tunisia at the Direction Générale des Douanes, gaining insights into customs clearance and border control.
+Evening: Exploring the vibrant Douanes Tunisinne, the main customs office in Bizerte, witnessing the bustling atmosphere and admiring the architectural brilliance.
+Night: Experiencing the exquisite cuisine of Bab Tounes restaurant once again, indulging in a delightful dinner showcasing the culinary artistry of Tunisia.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Douanes Tunis port, located in Tunis at R58J+55C, is a customs office that ensures the smooth flow of goods through the port. It offers services such as customs clearance, inspection, and storage. The office is known for its efficiency and professionalism, and for providing excellent customer service.
+**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).
+Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.
+Bab Tounes is a restaurant located in Tunis, Tunisia. It offers a variety of traditional Tunisian dishes, including couscous and iftar. The restaurant has a rating of 4.9 out of 5 on Google, and it is open from 12:30 pm to 10:30 pm every day. The restaurant is located at Bab Tounes, 3 Rue de l'ancienne douane, Tunis 1000.
+LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1446,12 +1717,50 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in douane and looking for something fun to do, check out Bab Tounes located at 3 Rue de l'ancienne douane, Tunis 1000. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 12:30-22:30, but closed on . To get there, use these GPS coordinates: 36.799564504437, 10.175214628771. For more details, visit their website at or call them at 23 458 458.</t>
+          <t>Bab Tounes is a restaurant located in Tunis, Tunisia. It offers a variety of traditional Tunisian dishes, including couscous and iftar. The restaurant has a rating of 4.9 out of 5 on Google, and it is open from 12:30 pm to 10:30 pm every day. The restaurant is located at Bab Tounes, 3 Rue de l'ancienne douane, Tunis 1000.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant attraction in Douane, offering a variety of dining options for a memorable culinary experience?</t>
+          <t>Day Plan:
+Morning: Exploring The BUREAU REGIONAL DES DOUANES DE SOUSSE and learning about customs procedures.
+Mid-Morning: Trying local cuisine at Bab Tounes for an authentic Tunisian dining experience.
+Midday: Visiting Bab Tounes for its historical and architectural significance.
+Afternoon: Enjoying the scenic views at LA VERANDA while sipping on local coffee or tea.
+Evening: Participating in traditional Tunisian music and dance at a cultural venue.
+Night: Relaxing at a local spa or hotel with a traditional Hammam treatment.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The BUREAU REGIONAL DES DOUANES DE SOUSSE is a local customs office located in Sousse, Tunisia. It is situated at the coordinates (35.8293001, 10.6406309) and has a rating of 4.0 out of 5 stars. The office offers various customs services, including import and export clearance, duty calculation, and other related services. You can find more information about the office and its services by visiting its website at http://www.douane.gov.tn/ or by calling 73 321 647.
+**Direction Générale des Douanes** is a customs department located in El Fell, Tunis. It offers services related to customs clearance and border control. The department has a rating of 3.2 stars and is open during regular business hours. Contact information for the department includes a phone number (80 103 066) and an address (Direction générale des douanes, El Fell, Tunis).
+Douanes Tunisinne is the main customs office in Bizerte, Tunisia. It is located at the following address: 168 Avenue 14 Janvier. The office is open from 8:30am to 1pm and from 2:30pm to 5:45pm, Monday through Saturday. The office is closed on Sundays. The phone number for the office is not available.
+Bab Tounes is a restaurant located in Bab Tounes, Tunis, Tunisia, at the coordinates (36.799564504437, 10.175214628771). It is highly rated (4.9 out of 5 stars) based on 33 reviews and is known for its affordable prices, iftar, and couscous. The restaurant is open from 12:30 PM to 10:30 PM and can be contacted at 23 458 458.
+LA VERANDA is a cafe located in douane with coordinates (34.4159879, 8.7920119). It is particularly praised for its great ratings, with a score of 4.8 out of 5 based on 8 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
